--- a/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 9,75</t>
+          <t>-11,45; 9,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 20,27</t>
+          <t>-0,91; 20,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 25,79</t>
+          <t>-23,34; 22,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 50,8</t>
+          <t>-1,95; 51,39</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 5,2</t>
+          <t>-8,42; 5,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 1,86</t>
+          <t>-11,99; 1,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 19,51</t>
+          <t>-26,07; 21,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 7,51</t>
+          <t>-34,9; 7,52</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,72</t>
+          <t>-8,63; 4,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 1,92</t>
+          <t>-10,82; 2,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 18,25</t>
+          <t>-27,41; 19,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 6,96</t>
+          <t>-30,83; 8,67</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -8,24</t>
+          <t>-23,48; -8,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,21; -2,19</t>
+          <t>-16,55; -2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,62; -26,25</t>
+          <t>-61,16; -26,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -6,41</t>
+          <t>-43,16; -7,63</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -18,82</t>
+          <t>-39,99; -17,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -17,99</t>
+          <t>-34,47; -17,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -45,97</t>
+          <t>-87,72; -42,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-82,12; -48,47</t>
+          <t>-81,72; -46,3</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,88; -10,0</t>
+          <t>-42,62; -11,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -14,13</t>
+          <t>-40,24; -14,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,03; -23,44</t>
+          <t>-90,85; -24,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,47; -33,67</t>
+          <t>-90,29; -34,6</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,37; -5,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,75</t>
+          <t>-11,5; -4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,71; -14,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -13,55</t>
+          <t>-30,82; -13,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 9,03</t>
+          <t>-10,4; 10,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 20,8</t>
+          <t>-2,01; 20,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 22,94</t>
+          <t>-21,1; 27,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 51,39</t>
+          <t>-3,98; 50,53</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 5,58</t>
+          <t>-8,51; 5,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 1,82</t>
+          <t>-11,17; 2,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 21,39</t>
+          <t>-26,51; 20,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 7,52</t>
+          <t>-33,39; 8,16</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 4,69</t>
+          <t>-8,88; 5,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 2,32</t>
+          <t>-11,14; 2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 19,22</t>
+          <t>-27,89; 19,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 8,67</t>
+          <t>-31,56; 8,26</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -8,19</t>
+          <t>-23,18; -6,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,55; -2,4</t>
+          <t>-16,57; -2,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,16; -26,15</t>
+          <t>-61,78; -22,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,16; -7,63</t>
+          <t>-43,38; -6,91</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-39,99; -17,13</t>
+          <t>-40,52; -18,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,47; -17,92</t>
+          <t>-34,72; -17,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-87,72; -42,61</t>
+          <t>-86,59; -41,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -46,3</t>
+          <t>-81,01; -47,37</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,62; -11,52</t>
+          <t>-42,56; -11,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -14,1</t>
+          <t>-40,31; -12,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,85; -24,78</t>
+          <t>-90,77; -27,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,29; -34,6</t>
+          <t>-89,77; -30,79</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,37; -5,06</t>
+          <t>-12,23; -5,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -4,82</t>
+          <t>-11,68; -4,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,71; -14,65</t>
+          <t>-33,18; -15,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -13,85</t>
+          <t>-31,22; -14,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 10,54</t>
+          <t>-11,65; 9,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 20,12</t>
+          <t>0,14; 20,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 27,05</t>
+          <t>-23,04; 25,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 50,53</t>
+          <t>0,57; 50,8</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 5,73</t>
+          <t>-8,54; 5,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,01</t>
+          <t>-11,68; 1,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 20,13</t>
+          <t>-26,22; 19,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 8,16</t>
+          <t>-34,77; 7,51</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 5,06</t>
+          <t>-9,02; 4,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 2,49</t>
+          <t>-10,75; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 19,7</t>
+          <t>-29,01; 18,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 8,26</t>
+          <t>-30,57; 6,96</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,18; -6,59</t>
+          <t>-23,47; -8,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -2,24</t>
+          <t>-17,21; -2,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,78; -22,28</t>
+          <t>-61,62; -26,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -6,91</t>
+          <t>-44,57; -6,41</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -18,12</t>
+          <t>-40,29; -18,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,72; -17,78</t>
+          <t>-34,77; -17,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-86,59; -41,06</t>
+          <t>-87,53; -45,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-81,01; -47,37</t>
+          <t>-82,12; -48,47</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -11,74</t>
+          <t>-42,88; -10,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -12,83</t>
+          <t>-40,1; -14,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,77; -27,32</t>
+          <t>-91,03; -23,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,77; -30,79</t>
+          <t>-89,47; -33,67</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -5,28</t>
+          <t>-12,45; -5,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -4,78</t>
+          <t>-11,8; -4,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -15,57</t>
+          <t>-33,22; -15,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -14,0</t>
+          <t>-31,12; -13,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,12 +521,16 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -567,11 +602,15 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,97%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>22,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-14,51%</t>
         </is>
       </c>
     </row>
@@ -619,19 +678,39 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>-27,12; 27,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-29,41; 15,5</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>-23,04; 25,79</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0,57; 50,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-40,83; 52,09</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-59,5; 63,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>23,87</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-5,96%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-16,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66,64%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-11,49%</t>
         </is>
       </c>
     </row>
@@ -679,19 +778,39 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-1,4; 45,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-15,5; 7,5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>-26,22; 19,51</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>-34,77; 7,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 154,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-42,47; 34,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-10,11</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-10,13</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-8,38%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-22,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-32,08%</t>
         </is>
       </c>
     </row>
@@ -739,19 +878,39 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-33,85; 17,01</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-18,62; -1,29</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>-29,01; 18,25</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-30,57; 6,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-63,66; 55,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-50,36; -4,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-48,9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-45,47%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>-27,39%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-66,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
         </is>
       </c>
     </row>
@@ -799,19 +978,39 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-78,88; 22,24</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 20,01</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>-61,62; -26,25</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>-44,57; -6,41</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 33,2</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-28,07; 329,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-12,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-10,5</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-70,81%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-68,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-37,72%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-29,17%</t>
         </is>
       </c>
     </row>
@@ -859,19 +1078,39 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-79,24; 38,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; -2,99</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>-87,53; -45,97</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>-82,12; -48,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-43,68; -9,09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,94</t>
+          <t>-35,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,97</t>
+          <t>-24,49</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,95%</t>
+          <t>-59,27</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,42%</t>
+          <t>-15,65</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-87,63%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-60,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-40,74%</t>
         </is>
       </c>
     </row>
@@ -909,29 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,88; -10,0</t>
+          <t>-44,81; -17,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,1; -14,13</t>
+          <t>-37,19; -3,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,03; -23,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-89,47; -33,67</t>
+          <t>-23,25; -6,29</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -38,85</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-86,73; -8,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-56,74; -19,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>-22,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-45,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
+          <t>-28,43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-43,77%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-65,6%</t>
         </is>
       </c>
     </row>
@@ -969,43 +1268,164 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-47,33; 13,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-54,42; -37,65</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-39,82; -14,36</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-83,41; 29,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-86,96; -34,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-8,82</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-8,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-5,09</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-24,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-22,61%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-17,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-12,45; -5,3</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-11,8; -4,75</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 7,42</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 6,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-33,22; -15,39</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-31,12; -13,55</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 16,23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,72; 33,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 9,75</t>
+          <t>-10,01; 9,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 20,27</t>
+          <t>0,07; 21,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 27,82</t>
+          <t>-5,69; 18,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 15,5</t>
+          <t>-30,52; 16,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 25,79</t>
+          <t>-20,78; 24,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 50,8</t>
+          <t>-0,24; 53,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 52,09</t>
+          <t>-11,81; 51,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 63,58</t>
+          <t>-61,53; 68,66</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,87</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 5,2</t>
+          <t>-8,27; 5,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 1,86</t>
+          <t>-11,99; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 45,49</t>
+          <t>-7,47; 8,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 7,5</t>
+          <t>-14,04; 7,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 19,51</t>
+          <t>-26,22; 20,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,77; 7,51</t>
+          <t>-35,19; 4,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 154,17</t>
+          <t>-21,26; 30,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 34,94</t>
+          <t>-41,23; 34,49</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,72</t>
+          <t>-8,82; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 1,92</t>
+          <t>-10,76; 2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 17,01</t>
+          <t>-11,24; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -1,29</t>
+          <t>-18,69; -1,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 18,25</t>
+          <t>-27,96; 17,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 6,96</t>
+          <t>-31,67; 9,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,66; 55,39</t>
+          <t>-33,48; 11,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,36; -4,36</t>
+          <t>-50,79; -7,79</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,9</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,24%</t>
+          <t>-45,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -8,24</t>
+          <t>-23,78; -8,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,21; -2,19</t>
+          <t>-17,38; -2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 22,24</t>
+          <t>-22,39; -8,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 20,01</t>
+          <t>-7,66; 20,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,62; -26,25</t>
+          <t>-63,09; -27,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -6,41</t>
+          <t>-44,43; -8,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,2</t>
+          <t>-58,17; -26,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 329,2</t>
+          <t>-27,04; 329,95</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,26</t>
+          <t>-17,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-37,72%</t>
+          <t>-45,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -18,82</t>
+          <t>-40,72; -17,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -17,99</t>
+          <t>-35,33; -18,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-79,24; 38,69</t>
+          <t>-27,1; -8,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -2,99</t>
+          <t>-17,17; -3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-87,53; -45,97</t>
+          <t>-87,87; -43,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-82,12; -48,47</t>
+          <t>-83,68; -49,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,35; -24,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,68; -9,09</t>
+          <t>-44,17; -11,75</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-59,27</t>
+          <t>-35,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-82,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,81; -17,83</t>
+          <t>-43,84; -17,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,19; -3,47</t>
+          <t>-38,13; -0,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,02; -24,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -6,29</t>
+          <t>-24,65; -7,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -38,85</t>
+          <t>-100,0; -41,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,73; -8,28</t>
+          <t>-91,16; -2,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,75; -60,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,74; -19,0</t>
+          <t>-57,53; -19,4</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-44,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 13,83</t>
+          <t>-47,94; 7,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-54,42; -37,65</t>
+          <t>-53,67; -37,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-52,02; -37,15</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-40,39; -13,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-99,81; 13,78</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-39,82; -14,36</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-83,41; 29,68</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-86,96; -34,9</t>
+          <t>-87,8; -29,3</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,3</t>
+          <t>-12,2; -5,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,75</t>
+          <t>-11,64; -4,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 7,42</t>
+          <t>-13,68; -6,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 6,87</t>
+          <t>-11,57; 6,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,22; -15,39</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -13,55</t>
+          <t>-30,95; -13,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 16,23</t>
+          <t>-36,15; -19,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 33,43</t>
+          <t>-33,07; 33,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q23_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>15,36%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-14,51%</t>
         </is>
       </c>
     </row>
@@ -683,27 +657,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 16,15</t>
+          <t>-20,78; 24,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 24,5</t>
+          <t>-0,24; 53,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 53,83</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
           <t>-11,81; 51,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-61,53; 68,66</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-16,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>2,1%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-11,49%</t>
         </is>
       </c>
     </row>
@@ -783,27 +737,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 7,35</t>
+          <t>-26,22; 20,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 20,36</t>
+          <t>-35,19; 4,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 4,3</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
           <t>-21,26; 30,01</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-41,23; 34,49</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,13</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>-15,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-32,08%</t>
         </is>
       </c>
     </row>
@@ -883,27 +817,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -1,91</t>
+          <t>-27,96; 17,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 17,11</t>
+          <t>-31,67; 9,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 9,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
           <t>-33,48; 11,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-50,79; -7,79</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>-45,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,47%</t>
+          <t>-27,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,39%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-45,01%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,36%</t>
         </is>
       </c>
     </row>
@@ -983,27 +897,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 20,85</t>
+          <t>-63,09; -27,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,09; -27,08</t>
+          <t>-44,43; -8,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,43; -8,68</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
           <t>-58,17; -26,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,04; 329,95</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-70,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-70,81%</t>
+          <t>-68,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-68,26%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>-45,81%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-29,17%</t>
         </is>
       </c>
     </row>
@@ -1083,27 +977,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -3,83</t>
+          <t>-87,87; -43,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-87,87; -43,03</t>
+          <t>-83,68; -49,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-83,68; -49,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
           <t>-63,35; -24,59</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-44,17; -11,75</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-15,65</t>
+          <t>-87,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-87,63%</t>
+          <t>-60,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-60,37%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-82,87%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-40,74%</t>
         </is>
       </c>
     </row>
@@ -1183,27 +1057,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -7,46</t>
+          <t>-100,0; -41,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -41,94</t>
+          <t>-91,16; -2,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,16; -2,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
           <t>-95,75; -60,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-57,53; -19,4</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-28,43</t>
+          <t>-43,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-65,6%</t>
         </is>
       </c>
     </row>
@@ -1283,27 +1137,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-40,39; -13,0</t>
+          <t>-99,81; 13,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-99,81; 13,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-87,8; -29,3</t>
         </is>
       </c>
     </row>
@@ -1335,27 +1179,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-22,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
           <t>-28,33%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>-17,4%</t>
         </is>
       </c>
     </row>
@@ -1383,27 +1217,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,3</t>
+          <t>-33,14; -15,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -15,1</t>
+          <t>-30,95; -13,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,95; -13,36</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
           <t>-36,15; -19,5</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-33,07; 33,2</t>
         </is>
       </c>
     </row>
@@ -1416,13 +1240,13 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
